--- a/可変抵抗の目盛りと出力電圧の関係.xlsx
+++ b/可変抵抗の目盛りと出力電圧の関係.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\MotorDriver_A4955\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68AECE00-B282-49E9-8884-917606EB511D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D8DED0-569D-4D00-B38B-5AB7996A9F12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="480" windowWidth="14400" windowHeight="15120" xr2:uid="{1CE7D438-898C-4A24-B041-EAE4C930E56C}"/>
   </bookViews>
@@ -1621,6 +1621,1536 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$1:$F$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$1:$G$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.158</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.316</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.71099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.86899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1060000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.264</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3430000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.659</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.738</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0540000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.1330000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.2120000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4490000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.528</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.6070000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.6860000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.7650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.8439999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.923</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.0020000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.0810000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.2389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.3180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.3970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.476</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.5550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.6340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.7130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.7919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.871</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.0289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.1080000000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.1870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.2660000000000009</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.3450000000000006</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.4240000000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.5030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.5819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.6609999999999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.74</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.819</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.8980000000000006</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.9770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.056</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.1350000000000007</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.2140000000000004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.2930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.3720000000000008</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.4509999999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.53</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.609</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.6879999999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.7670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.8460000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.9250000000000007</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.0040000000000004</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.0830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.1620000000000008</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.2410000000000005</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.32</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.3990000000000009</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.4779999999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.5570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.6360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.7149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.7940000000000005</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.8730000000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.952</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.0310000000000006</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.11</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.1890000000000009</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.2680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.3470000000000004</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.4260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.5049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.5839999999999996</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.6630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.742</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.8210000000000006</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-354A-48B7-BAA4-4E0C2B1553DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$1:$F$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$1:$H$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-354A-48B7-BAA4-4E0C2B1553DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="782246336"/>
+        <c:axId val="614110080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="782246336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="614110080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="614110080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="782246336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1781,6 +3311,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3845,20 +5415,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>646229</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>94662</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>399286</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>129939</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>417629</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>218487</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>170685</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>18579</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3885,16 +5971,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>290041</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>137232</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>278281</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>184269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>61441</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>25871</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>49681</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>72909</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3921,16 +6007,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>459786</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>224601</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>74790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>257527</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>136878</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22342</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>230953</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3957,16 +6043,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>159926</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>129352</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>63030</xdr:rowOff>
+      <xdr:rowOff>129353</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>658518</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>219193</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>282222</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3986,6 +6072,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>336315</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>4234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>134056</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>160397</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="グラフ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15B0F045-6E9E-4D3B-87C6-165F850FD1E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4291,15 +6413,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3CEF93-5770-4A21-8644-12CD9C56E136}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4309,8 +6431,19 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <f>(F1)*7.9+0</f>
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <f>INT(G1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -4321,8 +6454,19 @@
         <f>A2</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G65" si="0">(F2)*7.9+0</f>
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H65" si="1">INT(G2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -4330,11 +6474,22 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C11" si="0">A3</f>
+        <f t="shared" ref="C3:C11" si="2">A3</f>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F3">
+        <v>0.02</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>0.158</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -4342,11 +6497,22 @@
         <v>3.2</v>
       </c>
       <c r="C4">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="F4">
+        <v>0.03</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -4354,11 +6520,22 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C5">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="F5">
+        <v>0.04</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.316</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -4366,11 +6543,22 @@
         <v>5</v>
       </c>
       <c r="C6">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>0.05</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -4378,11 +6566,22 @@
         <v>5.9</v>
       </c>
       <c r="C7">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="F7">
+        <v>0.06</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -4390,11 +6589,22 @@
         <v>6.5</v>
       </c>
       <c r="C8">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="F8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -4402,11 +6612,22 @@
         <v>7.3</v>
       </c>
       <c r="C9">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="F9">
+        <v>0.08</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -4414,11 +6635,22 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="F10">
+        <v>0.09</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4426,11 +6658,22 @@
         <v>8.9</v>
       </c>
       <c r="C11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.1</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.79</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C12">
         <v>0</v>
       </c>
@@ -4442,135 +6685,1283 @@
         <f>C12</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F12">
+        <v>0.11</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C13">
         <v>0.1</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:D22" si="1">8.3939*C13+0.6133</f>
+        <f t="shared" ref="D13:D22" si="3">8.3939*C13+0.6133</f>
         <v>1.45269</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E22" si="2">C13</f>
+        <f t="shared" ref="E13:E22" si="4">C13</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F13">
+        <v>0.12</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C14">
         <v>0.2</v>
       </c>
       <c r="D14">
+        <f t="shared" si="3"/>
+        <v>2.2920800000000003</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="F14">
+        <v>0.13</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>1.0270000000000001</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="1"/>
-        <v>2.2920800000000003</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C15">
         <v>0.3</v>
       </c>
       <c r="D15">
+        <f t="shared" si="3"/>
+        <v>3.1314700000000002</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="F15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="1"/>
-        <v>3.1314700000000002</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C16">
         <v>0.4</v>
       </c>
       <c r="D16">
+        <f t="shared" si="3"/>
+        <v>3.9708600000000001</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="F16">
+        <v>0.15</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="1"/>
-        <v>3.9708600000000001</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C17">
         <v>0.5</v>
       </c>
       <c r="D17">
+        <f t="shared" si="3"/>
+        <v>4.8102499999999999</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <v>0.16</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>1.264</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="1"/>
-        <v>4.8102499999999999</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C18">
         <v>0.6</v>
       </c>
       <c r="D18">
+        <f t="shared" si="3"/>
+        <v>5.6496399999999998</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="F18">
+        <v>0.17</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>1.3430000000000002</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="1"/>
-        <v>5.6496399999999998</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C19">
         <v>0.7</v>
       </c>
       <c r="D19">
+        <f t="shared" si="3"/>
+        <v>6.4890299999999996</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="F19">
+        <v>0.18</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>1.4219999999999999</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="1"/>
-        <v>6.4890299999999996</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C20">
         <v>0.8</v>
       </c>
       <c r="D20">
+        <f t="shared" si="3"/>
+        <v>7.3284200000000004</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="F20">
+        <v>0.19</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>1.5010000000000001</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="1"/>
-        <v>7.3284200000000004</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C21">
         <v>0.9</v>
       </c>
       <c r="D21">
+        <f t="shared" si="3"/>
+        <v>8.1678100000000011</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="F21">
+        <v>0.2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>1.58</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="1"/>
-        <v>8.1678100000000011</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
+        <f t="shared" si="3"/>
+        <v>9.007200000000001</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.21</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>1.659</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="1"/>
-        <v>9.007200000000001</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="2"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="F23">
+        <v>0.22</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1.738</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="F24">
+        <v>0.23</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>1.8170000000000002</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="F25">
+        <v>0.24</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>1.8959999999999999</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="F26">
+        <v>0.25</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="F27">
+        <v>0.26</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>2.0540000000000003</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="F28">
+        <v>0.27</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>2.1330000000000005</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="F29">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="F30">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>2.2909999999999999</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="F31">
+        <v>0.3</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>2.37</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="F32">
+        <v>0.31</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>2.4490000000000003</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F33">
+        <v>0.32</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>2.528</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F34">
+        <v>0.33</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>2.6070000000000002</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F35">
+        <v>0.34</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>2.6860000000000004</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F36">
+        <v>0.35</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>2.7650000000000001</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F37">
+        <v>0.36</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>2.8439999999999999</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F38">
+        <v>0.37</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>2.923</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F39">
+        <v>0.38</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>3.0020000000000002</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F40">
+        <v>0.39</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>3.0810000000000004</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F41">
+        <v>0.4</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>3.16</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F42">
+        <v>0.41</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>3.2389999999999999</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F43">
+        <v>0.42</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>3.3180000000000001</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F44">
+        <v>0.43</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>3.3970000000000002</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F45">
+        <v>0.44</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>3.476</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F46">
+        <v>0.45</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>3.5550000000000002</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F47">
+        <v>0.46</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>3.6340000000000003</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F48">
+        <v>0.47</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>3.7130000000000001</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F49">
+        <v>0.48</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>3.7919999999999998</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F50">
+        <v>0.49</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>3.871</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F51">
+        <v>0.5</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>3.95</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F52">
+        <v>0.51</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>4.0289999999999999</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F53">
+        <v>0.52</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>4.1080000000000005</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F54">
+        <v>0.53</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>4.1870000000000003</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F55">
+        <v>0.54</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>4.2660000000000009</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F56">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>4.3450000000000006</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F57">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>4.4240000000000004</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F58">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>4.5030000000000001</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F59">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>4.5819999999999999</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F60">
+        <v>0.59</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>4.6609999999999996</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F61">
+        <v>0.6</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>4.74</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F62">
+        <v>0.61</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>4.819</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F63">
+        <v>0.62</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>4.8980000000000006</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F64">
+        <v>0.63</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>4.9770000000000003</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F65">
+        <v>0.64</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>5.056</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F66">
+        <v>0.65</v>
+      </c>
+      <c r="G66">
+        <f t="shared" ref="G66:G101" si="5">(F66)*7.9+0</f>
+        <v>5.1350000000000007</v>
+      </c>
+      <c r="H66">
+        <f t="shared" ref="H66:H108" si="6">INT(G66)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F67">
+        <v>0.66</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="5"/>
+        <v>5.2140000000000004</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F68">
+        <v>0.67</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="5"/>
+        <v>5.2930000000000001</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F69">
+        <v>0.68</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="5"/>
+        <v>5.3720000000000008</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F70">
+        <v>0.69</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="5"/>
+        <v>5.4509999999999996</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F71">
+        <v>0.7</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="5"/>
+        <v>5.53</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F72">
+        <v>0.71</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="5"/>
+        <v>5.609</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F73">
+        <v>0.72</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="5"/>
+        <v>5.6879999999999997</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F74">
+        <v>0.73</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="5"/>
+        <v>5.7670000000000003</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F75">
+        <v>0.74</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="5"/>
+        <v>5.8460000000000001</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F76">
+        <v>0.75</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="5"/>
+        <v>5.9250000000000007</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F77">
+        <v>0.76</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="5"/>
+        <v>6.0040000000000004</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F78">
+        <v>0.77</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="5"/>
+        <v>6.0830000000000002</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F79">
+        <v>0.78</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="5"/>
+        <v>6.1620000000000008</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F80">
+        <v>0.79</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="5"/>
+        <v>6.2410000000000005</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F81">
+        <v>0.8</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="5"/>
+        <v>6.32</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F82">
+        <v>0.81</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="5"/>
+        <v>6.3990000000000009</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F83">
+        <v>0.82</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="5"/>
+        <v>6.4779999999999998</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F84">
+        <v>0.83</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="5"/>
+        <v>6.5570000000000004</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F85">
+        <v>0.84</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="5"/>
+        <v>6.6360000000000001</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F86">
+        <v>0.85</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="5"/>
+        <v>6.7149999999999999</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F87">
+        <v>0.86</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="5"/>
+        <v>6.7940000000000005</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F88">
+        <v>0.87</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="5"/>
+        <v>6.8730000000000002</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F89">
+        <v>0.88</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="5"/>
+        <v>6.952</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F90">
+        <v>0.89</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="5"/>
+        <v>7.0310000000000006</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F91">
+        <v>0.9</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="5"/>
+        <v>7.11</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F92">
+        <v>0.91</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="5"/>
+        <v>7.1890000000000009</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F93">
+        <v>0.92</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="5"/>
+        <v>7.2680000000000007</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F94">
+        <v>0.93</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="5"/>
+        <v>7.3470000000000004</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F95">
+        <v>0.94</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="5"/>
+        <v>7.4260000000000002</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F96">
+        <v>0.95</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="5"/>
+        <v>7.5049999999999999</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F97">
+        <v>0.96</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="5"/>
+        <v>7.5839999999999996</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F98">
+        <v>0.97</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="5"/>
+        <v>7.6630000000000003</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F99">
+        <v>0.98</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="5"/>
+        <v>7.742</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F100">
+        <v>0.99</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="5"/>
+        <v>7.8210000000000006</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="6:8" x14ac:dyDescent="0.4">
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="5"/>
+        <v>7.9</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
